--- a/data/HDIstatus.xlsx
+++ b/data/HDIstatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishthaarora/Documents/internship-decriminalisingsuicide-policingthepolice/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admir.jahic\Desktop\HDRO\HDR 2021\Web materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BA89BE-EF54-2942-B5CC-7943592BA610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC8214E-DB48-44AE-871A-E2A548183FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -172,6 +172,9 @@
     <t>Japan</t>
   </si>
   <si>
+    <t>Korea (Republic of)</t>
+  </si>
+  <si>
     <t>United States</t>
   </si>
   <si>
@@ -271,6 +274,9 @@
     <t>Brunei Darussalam</t>
   </si>
   <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
     <t>Romania</t>
   </si>
   <si>
@@ -370,6 +376,9 @@
     <t>o</t>
   </si>
   <si>
+    <t>Moldova (Republic of)</t>
+  </si>
+  <si>
     <t>Palau</t>
   </si>
   <si>
@@ -544,6 +553,9 @@
     <t>Ghana</t>
   </si>
   <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
     <t>Guatemala</t>
   </si>
   <si>
@@ -575,6 +587,9 @@
   </si>
   <si>
     <t>Nepal</t>
+  </si>
+  <si>
+    <t>Eswatini (Kingdom of)</t>
   </si>
   <si>
     <t>Equatorial Guinea</t>
@@ -1425,21 +1440,6 @@
       </rPr>
       <t xml:space="preserve"> A composite index measuring average achievement in three basic dimensions of human development—a long and healthy life, knowledge and a decent standard of living. See Technical note 1 at http://hdr.undp.org/sites/default/files/hdr2022_technical_notes.pdf for details on how the HDI is calculated.</t>
     </r>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Micronesia (country)</t>
-  </si>
-  <si>
-    <t>Moldova</t>
   </si>
 </sst>
 </file>
@@ -1962,44 +1962,44 @@
   <dimension ref="A1:AA277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C160" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B187" sqref="B187"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="12"/>
-    <col min="2" max="2" width="45.1640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="12"/>
+    <col min="2" max="2" width="45.21875" style="12" customWidth="1"/>
     <col min="3" max="3" width="17" style="12" customWidth="1"/>
     <col min="4" max="4" width="2" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="12" customWidth="1"/>
     <col min="6" max="6" width="2" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="12" customWidth="1"/>
     <col min="8" max="8" width="2" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="12" customWidth="1"/>
     <col min="10" max="10" width="2" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.83203125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="2.83203125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="22.1640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="2.77734375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="22.21875" style="12" customWidth="1"/>
     <col min="14" max="14" width="2" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" style="12" customWidth="1"/>
     <col min="16" max="16" width="2" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" style="12"/>
+    <col min="17" max="17" width="8.77734375" style="12"/>
     <col min="18" max="18" width="2" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="12"/>
+    <col min="19" max="16384" width="8.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="10" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="E3" s="17" t="s">
         <v>1</v>
       </c>
@@ -2016,13 +2016,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="E4" s="17"/>
       <c r="G4" s="17"/>
       <c r="I4" s="17"/>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:27" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" s="5" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17" t="s">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:27" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2086,7 +2086,7 @@
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:27" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="17">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:27" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
@@ -2155,7 +2155,7 @@
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
     </row>
-    <row r="9" spans="1:27" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>2</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>4</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>6</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:27" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>7</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>8</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>9</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>10</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>11</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>12</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>13</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>15</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>16</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>17</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>18</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>19</v>
       </c>
@@ -2769,12 +2769,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>19</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>328</v>
+        <v>46</v>
       </c>
       <c r="C28" s="13">
         <v>0.92500000000000004</v>
@@ -2801,12 +2801,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>21</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="13">
         <v>0.92100000000000004</v>
@@ -2830,12 +2830,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>22</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="13">
         <v>0.91900000000000004</v>
@@ -2862,12 +2862,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>23</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="13">
         <v>0.91800000000000004</v>
@@ -2891,12 +2891,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>23</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="13">
         <v>0.91800000000000004</v>
@@ -2920,12 +2920,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>25</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="13">
         <v>0.91600000000000004</v>
@@ -2949,12 +2949,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>26</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="13">
         <v>0.91100000000000003</v>
@@ -2978,12 +2978,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>27</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="13">
         <v>0.90500000000000003</v>
@@ -3007,12 +3007,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>28</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="13">
         <v>0.90300000000000002</v>
@@ -3036,12 +3036,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>29</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="13">
         <v>0.89600000000000002</v>
@@ -3065,12 +3065,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>30</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="13">
         <v>0.89500000000000002</v>
@@ -3094,12 +3094,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>31</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" s="13">
         <v>0.89</v>
@@ -3123,12 +3123,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>32</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" s="13">
         <v>0.88900000000000001</v>
@@ -3152,12 +3152,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>33</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="13">
         <v>0.88700000000000001</v>
@@ -3184,12 +3184,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>34</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="13">
         <v>0.876</v>
@@ -3213,12 +3213,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>35</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" s="13">
         <v>0.875</v>
@@ -3242,12 +3242,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>35</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="13">
         <v>0.875</v>
@@ -3271,12 +3271,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>35</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" s="13">
         <v>0.875</v>
@@ -3300,12 +3300,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>38</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="13">
         <v>0.86599999999999999</v>
@@ -3329,12 +3329,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>39</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" s="13">
         <v>0.86299999999999999</v>
@@ -3358,12 +3358,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>40</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" s="13">
         <v>0.85799999999999998</v>
@@ -3375,7 +3375,7 @@
         <v>13.300238739999999</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I48" s="14">
         <v>10.55511952</v>
@@ -3387,7 +3387,7 @@
         <v>51166.626609999999</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M48" s="15">
         <v>-19</v>
@@ -3396,12 +3396,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>40</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C49" s="13">
         <v>0.85799999999999998</v>
@@ -3428,12 +3428,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>42</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" s="13">
         <v>0.85499999999999998</v>
@@ -3460,12 +3460,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>42</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" s="13">
         <v>0.85499999999999998</v>
@@ -3495,12 +3495,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>44</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" s="13">
         <v>0.85299999999999998</v>
@@ -3524,12 +3524,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>45</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" s="13">
         <v>0.84799999999999998</v>
@@ -3553,12 +3553,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>46</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="13">
         <v>0.84599999999999997</v>
@@ -3585,12 +3585,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>47</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" s="13">
         <v>0.84199999999999997</v>
@@ -3617,12 +3617,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>48</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C56" s="13">
         <v>0.83799999999999997</v>
@@ -3649,12 +3649,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>49</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C57" s="13">
         <v>0.83199999999999996</v>
@@ -3681,12 +3681,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>50</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" s="13">
         <v>0.83099999999999996</v>
@@ -3716,12 +3716,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>51</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C59" s="13">
         <v>0.82899999999999996</v>
@@ -3745,12 +3745,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="C60" s="13">
         <v>0.82199999999999995</v>
@@ -3777,12 +3777,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>53</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C61" s="13">
         <v>0.82099999999999995</v>
@@ -3806,12 +3806,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>54</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C62" s="13">
         <v>0.81599999999999995</v>
@@ -3835,12 +3835,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>55</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C63" s="13">
         <v>0.81200000000000006</v>
@@ -3852,7 +3852,7 @@
         <v>12.89945</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I63" s="14">
         <v>12.64192386</v>
@@ -3870,12 +3870,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>56</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C64" s="13">
         <v>0.81100000000000005</v>
@@ -3902,12 +3902,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>57</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C65" s="13">
         <v>0.81</v>
@@ -3919,7 +3919,7 @@
         <v>14.535452920000001</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I65" s="14">
         <v>11.610624189999999</v>
@@ -3937,12 +3937,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>58</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C66" s="13">
         <v>0.80900000000000005</v>
@@ -3966,12 +3966,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C67" s="13">
         <v>0.80900000000000005</v>
@@ -3995,12 +3995,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>60</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C68" s="13">
         <v>0.80800000000000005</v>
@@ -4024,12 +4024,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>61</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C69" s="13">
         <v>0.80500000000000005</v>
@@ -4056,12 +4056,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>62</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C70" s="13">
         <v>0.80300000000000005</v>
@@ -4085,12 +4085,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>63</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C71" s="13">
         <v>0.80200000000000005</v>
@@ -4114,12 +4114,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C72" s="13">
         <v>0.80200000000000005</v>
@@ -4149,12 +4149,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>63</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C73" s="13">
         <v>0.80200000000000005</v>
@@ -4178,12 +4178,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>66</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C74" s="13">
         <v>0.8</v>
@@ -4195,7 +4195,7 @@
         <v>15.882219129999999</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I74" s="14">
         <v>8.6971197129999993</v>
@@ -4210,10 +4210,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
@@ -4229,12 +4229,12 @@
       <c r="N75" s="23"/>
       <c r="O75" s="23"/>
     </row>
-    <row r="76" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C76" s="13">
         <v>0.79600000000000004</v>
@@ -4261,12 +4261,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>68</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C77" s="13">
         <v>0.79500000000000004</v>
@@ -4290,12 +4290,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <v>68</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C78" s="13">
         <v>0.79500000000000004</v>
@@ -4313,7 +4313,7 @@
         <v>9.0321040000000004</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K78" s="15">
         <v>13483.5774</v>
@@ -4325,12 +4325,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>70</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C79" s="13">
         <v>0.79</v>
@@ -4348,7 +4348,7 @@
         <v>9.852700596</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K79" s="15">
         <v>12306.341</v>
@@ -4360,12 +4360,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>71</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C80" s="13">
         <v>0.78800000000000003</v>
@@ -4383,7 +4383,7 @@
         <v>9.2937407459999992</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K80" s="15">
         <v>16792.365949999999</v>
@@ -4395,12 +4395,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>72</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C81" s="13">
         <v>0.78500000000000003</v>
@@ -4424,12 +4424,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>73</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C82" s="13">
         <v>0.78200000000000003</v>
@@ -4456,12 +4456,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>74</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C83" s="13">
         <v>0.78</v>
@@ -4473,7 +4473,7 @@
         <v>13.8</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I83" s="14">
         <v>10.536319730000001</v>
@@ -4488,12 +4488,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <v>75</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C84" s="13">
         <v>0.77700000000000002</v>
@@ -4511,7 +4511,7 @@
         <v>8.6627449999999993</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K84" s="15">
         <v>23358.332119999999</v>
@@ -4523,12 +4523,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <v>76</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C85" s="13">
         <v>0.77400000000000002</v>
@@ -4555,12 +4555,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>77</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C86" s="13">
         <v>0.77300000000000002</v>
@@ -4578,7 +4578,7 @@
         <v>11.13142043</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K86" s="15">
         <v>13255.509770000001</v>
@@ -4590,12 +4590,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>78</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C87" s="13">
         <v>0.77</v>
@@ -4622,12 +4622,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
         <v>79</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C88" s="13">
         <v>0.76800000000000002</v>
@@ -4645,7 +4645,7 @@
         <v>7.6001184459999998</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K88" s="15">
         <v>17504.399689999998</v>
@@ -4657,12 +4657,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <v>80</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C89" s="13">
         <v>0.76700000000000002</v>
@@ -4680,7 +4680,7 @@
         <v>9.3068641070000009</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K89" s="15">
         <v>17989.60037</v>
@@ -4692,12 +4692,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
         <v>80</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>330</v>
+        <v>114</v>
       </c>
       <c r="C90" s="13">
         <v>0.76700000000000002</v>
@@ -4721,12 +4721,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <v>80</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C91" s="13">
         <v>0.76700000000000002</v>
@@ -4744,7 +4744,7 @@
         <v>12.491429999999999</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K91" s="15">
         <v>13818.678690000001</v>
@@ -4756,12 +4756,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <v>83</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C92" s="13">
         <v>0.76400000000000001</v>
@@ -4782,7 +4782,7 @@
         <v>7878.8474820000001</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M92" s="15">
         <v>37</v>
@@ -4791,12 +4791,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <v>84</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C93" s="13">
         <v>0.76200000000000001</v>
@@ -4826,12 +4826,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A94" s="15">
         <v>85</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C94" s="13">
         <v>0.75900000000000001</v>
@@ -4855,12 +4855,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
         <v>86</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C95" s="13">
         <v>0.75800000000000001</v>
@@ -4884,12 +4884,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
         <v>87</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C96" s="13">
         <v>0.754</v>
@@ -4916,12 +4916,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
         <v>88</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C97" s="13">
         <v>0.752</v>
@@ -4945,12 +4945,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A98" s="15">
         <v>89</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C98" s="13">
         <v>0.751</v>
@@ -4977,12 +4977,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
         <v>90</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C99" s="13">
         <v>0.747</v>
@@ -5006,12 +5006,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <v>91</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C100" s="13">
         <v>0.745</v>
@@ -5023,7 +5023,7 @@
         <v>14.62689602</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I100" s="14">
         <v>8.0692843970000006</v>
@@ -5041,12 +5041,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <v>91</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C101" s="13">
         <v>0.745</v>
@@ -5070,12 +5070,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
         <v>91</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C102" s="13">
         <v>0.745</v>
@@ -5090,7 +5090,7 @@
         <v>11.392594000000001</v>
       </c>
       <c r="J102" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K102" s="15">
         <v>6822.03125</v>
@@ -5102,12 +5102,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
         <v>91</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C103" s="13">
         <v>0.745</v>
@@ -5131,12 +5131,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A104" s="15">
         <v>95</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C104" s="13">
         <v>0.74</v>
@@ -5160,12 +5160,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A105" s="15">
         <v>96</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C105" s="13">
         <v>0.73899999999999999</v>
@@ -5189,12 +5189,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A106" s="15">
         <v>97</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C106" s="13">
         <v>0.73099999999999998</v>
@@ -5224,12 +5224,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A107" s="15">
         <v>97</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C107" s="13">
         <v>0.73099999999999998</v>
@@ -5259,12 +5259,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A108" s="15">
         <v>99</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C108" s="13">
         <v>0.73</v>
@@ -5294,12 +5294,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
         <v>99</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C109" s="13">
         <v>0.73</v>
@@ -5311,13 +5311,13 @@
         <v>13.03564357</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I109" s="14">
         <v>9.7768006300000003</v>
       </c>
       <c r="J109" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K109" s="15">
         <v>12672.20033</v>
@@ -5329,12 +5329,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A110" s="15">
         <v>101</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C110" s="13">
         <v>0.72699999999999998</v>
@@ -5358,12 +5358,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
         <v>102</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C111" s="13">
         <v>0.72</v>
@@ -5381,7 +5381,7 @@
         <v>8.1421860000000006</v>
       </c>
       <c r="J111" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K111" s="15">
         <v>11487.62422</v>
@@ -5393,12 +5393,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <v>102</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C112" s="13">
         <v>0.72</v>
@@ -5422,12 +5422,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A113" s="15">
         <v>104</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C113" s="13">
         <v>0.71799999999999997</v>
@@ -5439,13 +5439,13 @@
         <v>12.854279999999999</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I113" s="14">
         <v>7.5999850000000002</v>
       </c>
       <c r="J113" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K113" s="15">
         <v>15335.712</v>
@@ -5457,12 +5457,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A114" s="15">
         <v>105</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C114" s="13">
         <v>0.71699999999999997</v>
@@ -5474,7 +5474,7 @@
         <v>12.987991129999999</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I114" s="14">
         <v>8.861840248</v>
@@ -5489,12 +5489,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A115" s="15">
         <v>106</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C115" s="13">
         <v>0.71499999999999997</v>
@@ -5518,12 +5518,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A116" s="15">
         <v>106</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C116" s="13">
         <v>0.71499999999999997</v>
@@ -5547,12 +5547,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
         <v>108</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C117" s="13">
         <v>0.71399999999999997</v>
@@ -5579,12 +5579,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
         <v>109</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C118" s="13">
         <v>0.71299999999999997</v>
@@ -5608,12 +5608,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A119" s="15">
         <v>110</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C119" s="13">
         <v>0.70899999999999996</v>
@@ -5625,7 +5625,7 @@
         <v>13.40492042</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I119" s="14">
         <v>9.1546286610000003</v>
@@ -5643,12 +5643,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A120" s="15">
         <v>111</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C120" s="13">
         <v>0.70699999999999996</v>
@@ -5672,12 +5672,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A121" s="15">
         <v>112</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C121" s="13">
         <v>0.70599999999999996</v>
@@ -5689,7 +5689,7 @@
         <v>12.977309999999999</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I121" s="14">
         <v>9.4359999999999999</v>
@@ -5704,12 +5704,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
         <v>112</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C122" s="13">
         <v>0.70599999999999996</v>
@@ -5721,13 +5721,13 @@
         <v>11.285869999999999</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I122" s="14">
         <v>8.7186360000000001</v>
       </c>
       <c r="J122" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K122" s="15">
         <v>9525.831467</v>
@@ -5739,12 +5739,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A123" s="15">
         <v>114</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C123" s="13">
         <v>0.70499999999999996</v>
@@ -5771,12 +5771,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
         <v>115</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C124" s="13">
         <v>0.70299999999999996</v>
@@ -5788,7 +5788,7 @@
         <v>12.9519325</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I124" s="14">
         <v>8.370280266</v>
@@ -5803,10 +5803,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
@@ -5822,12 +5822,12 @@
       <c r="N125" s="23"/>
       <c r="O125" s="23"/>
     </row>
-    <row r="126" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A126" s="15">
         <v>116</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C126" s="13">
         <v>0.69899999999999995</v>
@@ -5851,12 +5851,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A127" s="15">
         <v>117</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C127" s="13">
         <v>0.69299999999999995</v>
@@ -5883,12 +5883,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A128" s="15">
         <v>118</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C128" s="13">
         <v>0.69199999999999995</v>
@@ -5912,12 +5912,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A129" s="15">
         <v>118</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C129" s="13">
         <v>0.69199999999999995</v>
@@ -5932,7 +5932,7 @@
         <v>11.37410556</v>
       </c>
       <c r="J129" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K129" s="15">
         <v>4566.3038310000002</v>
@@ -5944,12 +5944,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A130" s="15">
         <v>120</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C130" s="13">
         <v>0.69099999999999995</v>
@@ -5961,7 +5961,7 @@
         <v>12.816079999999999</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I130" s="14">
         <v>11.107277359999999</v>
@@ -5973,7 +5973,7 @@
         <v>4810.8826209999997</v>
       </c>
       <c r="L130" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M130" s="15">
         <v>20</v>
@@ -5982,12 +5982,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A131" s="15">
         <v>121</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C131" s="13">
         <v>0.68600000000000005</v>
@@ -5999,13 +5999,13 @@
         <v>12.087473170000001</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I131" s="14">
         <v>7.9055934890000001</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K131" s="15">
         <v>9977.2490730000009</v>
@@ -6017,12 +6017,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A132" s="15">
         <v>122</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C132" s="13">
         <v>0.68500000000000005</v>
@@ -6040,7 +6040,7 @@
         <v>11.3333938</v>
       </c>
       <c r="J132" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K132" s="15">
         <v>4547.7424270000001</v>
@@ -6052,12 +6052,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A133" s="15">
         <v>123</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C133" s="13">
         <v>0.68300000000000005</v>
@@ -6081,12 +6081,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A134" s="15">
         <v>123</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C134" s="13">
         <v>0.68300000000000005</v>
@@ -6110,12 +6110,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A135" s="15">
         <v>125</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C135" s="13">
         <v>0.67500000000000004</v>
@@ -6127,7 +6127,7 @@
         <v>12.671347669999999</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I135" s="14">
         <v>7.150929928</v>
@@ -6142,12 +6142,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A136" s="15">
         <v>126</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C136" s="13">
         <v>0.66700000000000004</v>
@@ -6159,7 +6159,7 @@
         <v>12.64135783</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I136" s="14">
         <v>7.1440000000000001</v>
@@ -6174,12 +6174,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A137" s="15">
         <v>127</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C137" s="13">
         <v>0.66600000000000004</v>
@@ -6209,12 +6209,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A138" s="15">
         <v>128</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C138" s="13">
         <v>0.66200000000000003</v>
@@ -6232,7 +6232,7 @@
         <v>6.2877192869999998</v>
       </c>
       <c r="J138" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K138" s="15">
         <v>6230.2001989999999</v>
@@ -6244,12 +6244,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A139" s="15">
         <v>129</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C139" s="13">
         <v>0.66100000000000003</v>
@@ -6273,12 +6273,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A140" s="15">
         <v>130</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C140" s="13">
         <v>0.64100000000000001</v>
@@ -6305,12 +6305,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A141" s="15">
         <v>131</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C141" s="13">
         <v>0.63900000000000001</v>
@@ -6334,12 +6334,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
         <v>132</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C142" s="13">
         <v>0.63300000000000001</v>
@@ -6354,7 +6354,7 @@
         <v>6.6551091949999996</v>
       </c>
       <c r="J142" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K142" s="15">
         <v>6589.9800370000003</v>
@@ -6366,12 +6366,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A143" s="15">
         <v>133</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C143" s="13">
         <v>0.63200000000000001</v>
@@ -6386,7 +6386,7 @@
         <v>8.3298866950000008</v>
       </c>
       <c r="J143" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K143" s="15">
         <v>5744.5040170000002</v>
@@ -6398,12 +6398,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A144" s="15">
         <v>134</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>329</v>
+        <v>173</v>
       </c>
       <c r="C144" s="13">
         <v>0.628</v>
@@ -6415,13 +6415,13 @@
         <v>11.54947988</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I144" s="14">
         <v>7.8049559999999998</v>
       </c>
       <c r="J144" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K144" s="15">
         <v>3696.173945</v>
@@ -6433,12 +6433,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A145" s="15">
         <v>135</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C145" s="13">
         <v>0.627</v>
@@ -6462,12 +6462,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A146" s="15">
         <v>136</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C146" s="13">
         <v>0.624</v>
@@ -6482,7 +6482,7 @@
         <v>7.9844618220000001</v>
       </c>
       <c r="J146" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K146" s="15">
         <v>4062.5860339999999</v>
@@ -6494,12 +6494,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A147" s="15">
         <v>137</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C147" s="13">
         <v>0.621</v>
@@ -6511,7 +6511,7 @@
         <v>10.13281417</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I147" s="14">
         <v>7.0884799960000002</v>
@@ -6526,12 +6526,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A148" s="15">
         <v>138</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C148" s="13">
         <v>0.61799999999999999</v>
@@ -6546,7 +6546,7 @@
         <v>6.2155994349999997</v>
       </c>
       <c r="J148" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K148" s="15">
         <v>4021.3508149999998</v>
@@ -6558,12 +6558,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A149" s="15">
         <v>139</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C149" s="13">
         <v>0.61499999999999999</v>
@@ -6575,13 +6575,13 @@
         <v>11.92720692</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I149" s="14">
         <v>7.192013277</v>
       </c>
       <c r="J149" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K149" s="15">
         <v>8633.5044519999992</v>
@@ -6593,12 +6593,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A150" s="15">
         <v>140</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C150" s="13">
         <v>0.60699999999999998</v>
@@ -6622,12 +6622,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
         <v>140</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C151" s="13">
         <v>0.60699999999999998</v>
@@ -6639,7 +6639,7 @@
         <v>12.616097999999999</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I151" s="14">
         <v>5.4367900000000002</v>
@@ -6654,12 +6654,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A152" s="15">
         <v>140</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C152" s="13">
         <v>0.60699999999999998</v>
@@ -6677,7 +6677,7 @@
         <v>7.0648460000000002</v>
       </c>
       <c r="J152" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K152" s="15">
         <v>3085.4116330000002</v>
@@ -6689,12 +6689,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A153" s="15">
         <v>143</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C153" s="13">
         <v>0.60199999999999998</v>
@@ -6709,7 +6709,7 @@
         <v>5.1217927420000002</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K153" s="15">
         <v>3877.3154439999998</v>
@@ -6721,12 +6721,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A154" s="15">
         <v>144</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="C154" s="13">
         <v>0.59699999999999998</v>
@@ -6753,12 +6753,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A155" s="15">
         <v>145</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C155" s="13">
         <v>0.59599999999999997</v>
@@ -6770,13 +6770,13 @@
         <v>9.7349399999999999</v>
       </c>
       <c r="H155" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I155" s="14">
         <v>5.910863</v>
       </c>
       <c r="J155" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K155" s="15">
         <v>12073.959930000001</v>
@@ -6788,12 +6788,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A156" s="15">
         <v>146</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C156" s="13">
         <v>0.59299999999999997</v>
@@ -6805,7 +6805,7 @@
         <v>11.46772</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I156" s="14">
         <v>5.0880000000000001</v>
@@ -6820,12 +6820,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A157" s="15">
         <v>146</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C157" s="13">
         <v>0.59299999999999997</v>
@@ -6855,12 +6855,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A158" s="15">
         <v>148</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C158" s="13">
         <v>0.58599999999999997</v>
@@ -6884,12 +6884,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A159" s="15">
         <v>149</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C159" s="13">
         <v>0.58499999999999996</v>
@@ -6916,12 +6916,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A160" s="15">
         <v>150</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C160" s="13">
         <v>0.57699999999999996</v>
@@ -6936,13 +6936,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J160" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K160" s="15">
         <v>4191.9338930000004</v>
       </c>
       <c r="L160" s="11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M160" s="15">
         <v>-2</v>
@@ -6951,12 +6951,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A161" s="15">
         <v>151</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C161" s="13">
         <v>0.57599999999999996</v>
@@ -6974,7 +6974,7 @@
         <v>6.1513099999999996</v>
       </c>
       <c r="J161" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K161" s="15">
         <v>3620.9324080000001</v>
@@ -6986,12 +6986,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A162" s="15">
         <v>152</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C162" s="13">
         <v>0.57499999999999996</v>
@@ -7003,7 +7003,7 @@
         <v>10.698558350000001</v>
       </c>
       <c r="H162" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I162" s="14">
         <v>6.6520000000000001</v>
@@ -7018,12 +7018,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A163" s="15">
         <v>153</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C163" s="13">
         <v>0.57099999999999995</v>
@@ -7050,12 +7050,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A164" s="15">
         <v>154</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C164" s="13">
         <v>0.56499999999999995</v>
@@ -7067,13 +7067,13 @@
         <v>10.92876021</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I164" s="14">
         <v>7.1870914939999997</v>
       </c>
       <c r="J164" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K164" s="15">
         <v>3217.7677389999999</v>
@@ -7085,12 +7085,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A165" s="15">
         <v>155</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C165" s="13">
         <v>0.56399999999999995</v>
@@ -7108,7 +7108,7 @@
         <v>5.7118479999999998</v>
       </c>
       <c r="J165" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K165" s="15">
         <v>2481.5113620000002</v>
@@ -7120,12 +7120,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A166" s="15">
         <v>156</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C166" s="13">
         <v>0.55800000000000005</v>
@@ -7143,7 +7143,7 @@
         <v>5.0786490000000004</v>
       </c>
       <c r="J166" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K166" s="15">
         <v>3142.0641190000001</v>
@@ -7155,12 +7155,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A167" s="15">
         <v>156</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C167" s="13">
         <v>0.55800000000000005</v>
@@ -7172,7 +7172,7 @@
         <v>10.36077074</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I167" s="14">
         <v>4.74</v>
@@ -7187,12 +7187,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A168" s="15">
         <v>158</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C168" s="13">
         <v>0.55600000000000005</v>
@@ -7207,7 +7207,7 @@
         <v>4.9188048909999997</v>
       </c>
       <c r="J168" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K168" s="15">
         <v>5075.305711</v>
@@ -7219,12 +7219,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A169" s="15">
         <v>159</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C169" s="13">
         <v>0.55000000000000004</v>
@@ -7239,7 +7239,7 @@
         <v>5.1991389769999996</v>
       </c>
       <c r="J169" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K169" s="15">
         <v>5217.4485160000004</v>
@@ -7251,10 +7251,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="1:15" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:15" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="23" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
@@ -7270,12 +7270,12 @@
       <c r="N170" s="23"/>
       <c r="O170" s="23"/>
     </row>
-    <row r="171" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A171" s="15">
         <v>160</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C171" s="13">
         <v>0.54900000000000004</v>
@@ -7302,12 +7302,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A172" s="15">
         <v>161</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C172" s="13">
         <v>0.54400000000000004</v>
@@ -7331,12 +7331,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A173" s="15">
         <v>162</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C173" s="13">
         <v>0.53900000000000003</v>
@@ -7354,7 +7354,7 @@
         <v>5.0168073670000002</v>
       </c>
       <c r="J173" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K173" s="15">
         <v>2166.6190620000002</v>
@@ -7366,12 +7366,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A174" s="15">
         <v>163</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C174" s="13">
         <v>0.53500000000000003</v>
@@ -7383,7 +7383,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I174" s="14">
         <v>5.5540000000000003</v>
@@ -7398,12 +7398,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A175" s="15">
         <v>163</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C175" s="13">
         <v>0.53500000000000003</v>
@@ -7415,13 +7415,13 @@
         <v>10.12758388</v>
       </c>
       <c r="H175" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I175" s="14">
         <v>7.181074153</v>
       </c>
       <c r="J175" s="11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K175" s="15">
         <v>4790.2844249999998</v>
@@ -7433,12 +7433,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A176" s="15">
         <v>165</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C176" s="13">
         <v>0.53400000000000003</v>
@@ -7465,12 +7465,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A177" s="15">
         <v>166</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C177" s="13">
         <v>0.52500000000000002</v>
@@ -7485,7 +7485,7 @@
         <v>4.3047864450000004</v>
       </c>
       <c r="J177" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K177" s="15">
         <v>3408.9659230000002</v>
@@ -7497,12 +7497,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A178" s="15">
         <v>166</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C178" s="13">
         <v>0.52500000000000002</v>
@@ -7514,13 +7514,13 @@
         <v>10.14986994</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I178" s="14">
         <v>5.7309415660000003</v>
       </c>
       <c r="J178" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K178" s="15">
         <v>2181.43651</v>
@@ -7532,12 +7532,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A179" s="15">
         <v>168</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C179" s="13">
         <v>0.51400000000000001</v>
@@ -7555,7 +7555,7 @@
         <v>6.0101847069999996</v>
       </c>
       <c r="J179" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K179" s="15">
         <v>2700.4357479999999</v>
@@ -7567,12 +7567,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A180" s="15">
         <v>169</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C180" s="13">
         <v>0.51200000000000001</v>
@@ -7590,7 +7590,7 @@
         <v>4.4896953850000001</v>
       </c>
       <c r="J180" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K180" s="15">
         <v>1465.6350640000001</v>
@@ -7602,12 +7602,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A181" s="15">
         <v>170</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C181" s="13">
         <v>0.51100000000000001</v>
@@ -7634,12 +7634,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A182" s="15">
         <v>171</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C182" s="13">
         <v>0.50900000000000001</v>
@@ -7657,7 +7657,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J182" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K182" s="15">
         <v>5024.9939439999998</v>
@@ -7669,12 +7669,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A183" s="15">
         <v>172</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C183" s="13">
         <v>0.50800000000000001</v>
@@ -7701,12 +7701,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A184" s="15">
         <v>173</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C184" s="13">
         <v>0.501</v>
@@ -7724,7 +7724,7 @@
         <v>5.1204685339999996</v>
       </c>
       <c r="J184" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K184" s="15">
         <v>1483.5209829999999</v>
@@ -7736,12 +7736,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A185" s="15">
         <v>174</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C185" s="13">
         <v>0.5</v>
@@ -7753,7 +7753,7 @@
         <v>9.4186262989999996</v>
       </c>
       <c r="H185" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I185" s="14">
         <v>4.6374874110000004</v>
@@ -7768,12 +7768,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A186" s="15">
         <v>175</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C186" s="13">
         <v>0.498</v>
@@ -7800,12 +7800,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A187" s="15">
         <v>176</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C187" s="13">
         <v>0.49199999999999999</v>
@@ -7823,13 +7823,13 @@
         <v>4.8872352000000001</v>
       </c>
       <c r="J187" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K187" s="15">
         <v>1728.742667</v>
       </c>
       <c r="L187" s="11" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M187" s="15">
         <v>3</v>
@@ -7838,12 +7838,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A188" s="15">
         <v>177</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C188" s="13">
         <v>0.48299999999999998</v>
@@ -7855,7 +7855,7 @@
         <v>10.61306278</v>
       </c>
       <c r="H188" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I188" s="14">
         <v>3.5837189999999999</v>
@@ -7870,12 +7870,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A189" s="15">
         <v>178</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C189" s="13">
         <v>0.48099999999999998</v>
@@ -7899,12 +7899,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A190" s="15">
         <v>179</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C190" s="13">
         <v>0.47899999999999998</v>
@@ -7922,7 +7922,7 @@
         <v>7.0186965160000003</v>
       </c>
       <c r="J190" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K190" s="15">
         <v>1076.0987809999999</v>
@@ -7934,12 +7934,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A191" s="15">
         <v>180</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C191" s="13">
         <v>0.47799999999999998</v>
@@ -7966,12 +7966,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A192" s="15">
         <v>181</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C192" s="13">
         <v>0.47699999999999998</v>
@@ -7983,13 +7983,13 @@
         <v>9.5733910899999994</v>
       </c>
       <c r="H192" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I192" s="14">
         <v>4.5760812849999999</v>
       </c>
       <c r="J192" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K192" s="15">
         <v>1621.512579</v>
@@ -8001,12 +8001,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:17" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A193" s="15">
         <v>182</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C193" s="13">
         <v>0.46500000000000002</v>
@@ -8036,12 +8036,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:17" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A194" s="15">
         <v>183</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C194" s="13">
         <v>0.45500000000000002</v>
@@ -8056,7 +8056,7 @@
         <v>3.2</v>
       </c>
       <c r="J194" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K194" s="15">
         <v>1314.2701890000001</v>
@@ -8068,12 +8068,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:17" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A195" s="15">
         <v>184</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C195" s="13">
         <v>0.44900000000000001</v>
@@ -8100,12 +8100,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:17" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A196" s="15">
         <v>185</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C196" s="13">
         <v>0.44600000000000001</v>
@@ -8135,12 +8135,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:17" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A197" s="15">
         <v>186</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C197" s="13">
         <v>0.42799999999999999</v>
@@ -8167,12 +8167,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:17" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A198" s="15">
         <v>187</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C198" s="13">
         <v>0.42599999999999999</v>
@@ -8202,12 +8202,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:17" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A199" s="15">
         <v>188</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C199" s="13">
         <v>0.40400000000000003</v>
@@ -8234,12 +8234,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:17" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A200" s="15">
         <v>189</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C200" s="13">
         <v>0.4</v>
@@ -8257,7 +8257,7 @@
         <v>2.1167172989999998</v>
       </c>
       <c r="J200" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K200" s="15">
         <v>1239.8669359999999</v>
@@ -8269,12 +8269,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:17" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A201" s="15">
         <v>190</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C201" s="13">
         <v>0.39400000000000002</v>
@@ -8292,7 +8292,7 @@
         <v>2.5737742099999998</v>
       </c>
       <c r="J201" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K201" s="15">
         <v>1364.1694170000001</v>
@@ -8304,12 +8304,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:17" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A202" s="15">
         <v>191</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C202" s="13">
         <v>0.38500000000000001</v>
@@ -8330,7 +8330,7 @@
         <v>767.78700000000003</v>
       </c>
       <c r="L202" s="11" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M202" s="15">
         <v>-1</v>
@@ -8339,10 +8339,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="203" spans="1:17" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:17" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="23" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
@@ -8358,12 +8358,12 @@
       <c r="N203" s="23"/>
       <c r="O203" s="23"/>
     </row>
-    <row r="204" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:17" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E204" s="14">
         <v>73.284499999999994</v>
@@ -8372,55 +8372,55 @@
         <v>10.78317</v>
       </c>
       <c r="H204" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M204" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="O204" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q204" s="6"/>
     </row>
-    <row r="205" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B205" s="10" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E205" s="14">
         <v>85.946299999999994</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K205" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M205" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="O205" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q205" s="6"/>
     </row>
-    <row r="206" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:17" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E206" s="14">
         <v>63.616999999999997</v>
@@ -8432,47 +8432,47 @@
         <v>29</v>
       </c>
       <c r="I206" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K206" s="15">
         <v>17729.740839999999</v>
       </c>
       <c r="M206" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="O206" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q206" s="6"/>
     </row>
-    <row r="207" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B207" s="10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E207" s="14">
         <v>55.280299999999997</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K207" s="15">
         <v>1017.96785</v>
       </c>
       <c r="M207" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="O207" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q207" s="6"/>
     </row>
-    <row r="208" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B208" s="10"/>
       <c r="C208" s="6"/>
       <c r="E208" s="14"/>
@@ -8483,15 +8483,15 @@
       <c r="O208" s="6"/>
       <c r="Q208" s="6"/>
     </row>
-    <row r="209" spans="1:17" s="5" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:17" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="210" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C210" s="13">
         <v>0.89600000000000002</v>
@@ -8509,16 +8509,16 @@
         <v>43751.59645777088</v>
       </c>
       <c r="M210" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O210" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q210" s="6"/>
     </row>
-    <row r="211" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B211" s="10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C211" s="13">
         <v>0.754</v>
@@ -8536,16 +8536,16 @@
         <v>15167.247710127374</v>
       </c>
       <c r="M211" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O211" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q211" s="6"/>
     </row>
-    <row r="212" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B212" s="10" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C212" s="13">
         <v>0.63600000000000001</v>
@@ -8563,16 +8563,16 @@
         <v>6353.4919645323826</v>
       </c>
       <c r="M212" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O212" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q212" s="6"/>
     </row>
-    <row r="213" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B213" s="10" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C213" s="13">
         <v>0.51800000000000002</v>
@@ -8590,14 +8590,14 @@
         <v>3009.120912729737</v>
       </c>
       <c r="M213" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O213" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q213" s="6"/>
     </row>
-    <row r="214" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B214" s="10"/>
       <c r="C214" s="13"/>
       <c r="E214" s="14"/>
@@ -8608,9 +8608,9 @@
       <c r="O214" s="6"/>
       <c r="Q214" s="6"/>
     </row>
-    <row r="215" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B215" s="9" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C215" s="13">
         <v>0.68500000000000005</v>
@@ -8628,14 +8628,14 @@
         <v>10703.751014582542</v>
       </c>
       <c r="M215" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O215" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q215" s="6"/>
     </row>
-    <row r="216" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B216" s="9"/>
       <c r="C216" s="13"/>
       <c r="E216" s="14"/>
@@ -8646,9 +8646,9 @@
       <c r="O216" s="6"/>
       <c r="Q216" s="6"/>
     </row>
-    <row r="217" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C217" s="13"/>
       <c r="E217" s="14"/>
@@ -8659,9 +8659,9 @@
       <c r="O217" s="6"/>
       <c r="Q217" s="6"/>
     </row>
-    <row r="218" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B218" s="10" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C218" s="13">
         <v>0.70799999999999996</v>
@@ -8679,16 +8679,16 @@
         <v>13500.556146491099</v>
       </c>
       <c r="M218" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O218" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q218" s="6"/>
     </row>
-    <row r="219" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B219" s="10" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C219" s="13">
         <v>0.749</v>
@@ -8706,16 +8706,16 @@
         <v>15580.436860442398</v>
       </c>
       <c r="M219" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O219" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q219" s="6"/>
     </row>
-    <row r="220" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B220" s="10" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C220" s="13">
         <v>0.79600000000000004</v>
@@ -8733,16 +8733,16 @@
         <v>19351.837024293371</v>
       </c>
       <c r="M220" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O220" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q220" s="6"/>
     </row>
-    <row r="221" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B221" s="10" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C221" s="13">
         <v>0.754</v>
@@ -8760,16 +8760,16 @@
         <v>14520.661244684154</v>
       </c>
       <c r="M221" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O221" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q221" s="6"/>
     </row>
-    <row r="222" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B222" s="10" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C222" s="13">
         <v>0.63200000000000001</v>
@@ -8787,16 +8787,16 @@
         <v>6481.3931350831599</v>
       </c>
       <c r="M222" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O222" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q222" s="6"/>
     </row>
-    <row r="223" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B223" s="10" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C223" s="13">
         <v>0.54700000000000004</v>
@@ -8814,14 +8814,14 @@
         <v>3698.8689135895734</v>
       </c>
       <c r="M223" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O223" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q223" s="6"/>
     </row>
-    <row r="224" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B224" s="10"/>
       <c r="C224" s="13"/>
       <c r="E224" s="14"/>
@@ -8832,9 +8832,9 @@
       <c r="O224" s="6"/>
       <c r="Q224" s="6"/>
     </row>
-    <row r="225" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B225" s="9" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C225" s="13">
         <v>0.54</v>
@@ -8852,16 +8852,16 @@
         <v>2880.6524874332645</v>
       </c>
       <c r="M225" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O225" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q225" s="6"/>
     </row>
-    <row r="226" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C226" s="13">
         <v>0.73</v>
@@ -8879,14 +8879,14 @@
         <v>16782.329526842565</v>
       </c>
       <c r="M226" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O226" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q226" s="6"/>
     </row>
-    <row r="227" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="13"/>
       <c r="E227" s="14"/>
@@ -8897,9 +8897,9 @@
       <c r="O227" s="6"/>
       <c r="Q227" s="6"/>
     </row>
-    <row r="228" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C228" s="13">
         <v>0.89900000000000002</v>
@@ -8917,14 +8917,14 @@
         <v>45086.969066520527</v>
       </c>
       <c r="M228" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O228" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q228" s="6"/>
     </row>
-    <row r="229" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="13"/>
       <c r="E229" s="14"/>
@@ -8935,9 +8935,9 @@
       <c r="O229" s="6"/>
       <c r="Q229" s="6"/>
     </row>
-    <row r="230" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B230" s="9" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C230" s="13">
         <v>0.73199999999999998</v>
@@ -8955,96 +8955,96 @@
         <v>16752.082921546265</v>
       </c>
       <c r="M230" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O230" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q230" s="6"/>
     </row>
-    <row r="232" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="232" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B232" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="233" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="233" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B233" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="234" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="234" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B234" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="235" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="235" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B235" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="236" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="236" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B236" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="237" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="237" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B237" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="238" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="238" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B238" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="239" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="239" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B239" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="240" spans="2:17" ht="14" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="240" spans="2:17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B240" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="241" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="241" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B241" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="242" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="242" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B242" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="243" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="243" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B243" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="244" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="244" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B244" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="245" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="245" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B245" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="246" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="246" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B246" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="247" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="247" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B247" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="248" spans="2:13" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="248" spans="2:13" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B248" s="10" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
@@ -9058,9 +9058,9 @@
       <c r="L248" s="10"/>
       <c r="M248" s="10"/>
     </row>
-    <row r="249" spans="2:13" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="249" spans="2:13" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B249" s="10" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="10"/>
@@ -9074,9 +9074,9 @@
       <c r="L249" s="10"/>
       <c r="M249" s="10"/>
     </row>
-    <row r="250" spans="2:13" s="16" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="250" spans="2:13" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B250" s="10" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
@@ -9090,124 +9090,124 @@
       <c r="L250" s="10"/>
       <c r="M250" s="10"/>
     </row>
-    <row r="251" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="251" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B251" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="252" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="252" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B252" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="253" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="253" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B253" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="254" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="254" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B254" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="255" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="255" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B255" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="256" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="256" spans="2:13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B256" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B257" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B258" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B259" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="262" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B264" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="265" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B265" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="266" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B266" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B267" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="268" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B268" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B269" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="272" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B272" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B273" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B274" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="275" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B275" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B276" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B277" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -9236,138 +9236,138 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="166.83203125" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="12"/>
+    <col min="1" max="1" width="166.88671875" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+    </row>
+    <row r="5" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-    </row>
-    <row r="5" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+    <row r="25" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="20" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -9379,6 +9379,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7f64e6aa-b736-4f26-84cc-faf427629e48">
+      <UserInfo>
+        <DisplayName>Cecilia Calderon</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AD45DB714643E4A8A8C58D3ECEF2B52" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0377062c7993f79e0ee2fe840fd08d8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b0611ad7-5071-45af-a141-b2a079deb018" xmlns:ns3="7f64e6aa-b736-4f26-84cc-faf427629e48" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2869b255174fce0a927e36b6c0c9136f" ns2:_="" ns3:_="">
     <xsd:import namespace="b0611ad7-5071-45af-a141-b2a079deb018"/>
@@ -9557,7 +9571,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9566,21 +9580,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7f64e6aa-b736-4f26-84cc-faf427629e48">
-      <UserInfo>
-        <DisplayName>Cecilia Calderon</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7DA61EB-8D48-4617-94E1-454D1449F940}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f64e6aa-b736-4f26-84cc-faf427629e48"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E66ED643-5F43-47CB-8288-3F0E93434226}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9599,20 +9609,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BAEA50D-A77A-4BD1-A57D-FE81CA4DEB01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7DA61EB-8D48-4617-94E1-454D1449F940}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7f64e6aa-b736-4f26-84cc-faf427629e48"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>